--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.915632</v>
+        <v>5.685592333333333</v>
       </c>
       <c r="H2">
-        <v>35.74689599999999</v>
+        <v>17.056777</v>
       </c>
       <c r="I2">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="J2">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.126464333333334</v>
+        <v>9.101794333333332</v>
       </c>
       <c r="N2">
-        <v>18.379393</v>
+        <v>27.305383</v>
       </c>
       <c r="O2">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="P2">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="Q2">
-        <v>73.00069445712532</v>
+        <v>51.74909208117677</v>
       </c>
       <c r="R2">
-        <v>657.0062501141279</v>
+        <v>465.741828730591</v>
       </c>
       <c r="S2">
-        <v>0.0238248460146011</v>
+        <v>0.01813628190885896</v>
       </c>
       <c r="T2">
-        <v>0.0238248460146011</v>
+        <v>0.01813628190885896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.915632</v>
+        <v>5.685592333333333</v>
       </c>
       <c r="H3">
-        <v>35.74689599999999</v>
+        <v>17.056777</v>
       </c>
       <c r="I3">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="J3">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>107.212106</v>
       </c>
       <c r="O3">
-        <v>0.6306349784216607</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="P3">
-        <v>0.6306349784216608</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="Q3">
-        <v>425.8333336803306</v>
+        <v>203.1881093047069</v>
       </c>
       <c r="R3">
-        <v>3832.500003122976</v>
+        <v>1828.692983742362</v>
       </c>
       <c r="S3">
-        <v>0.1389769464285948</v>
+        <v>0.07121046346277103</v>
       </c>
       <c r="T3">
-        <v>0.1389769464285948</v>
+        <v>0.07121046346277103</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.915632</v>
+        <v>5.685592333333333</v>
       </c>
       <c r="H4">
-        <v>35.74689599999999</v>
+        <v>17.056777</v>
       </c>
       <c r="I4">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="J4">
-        <v>0.2203762099850903</v>
+        <v>0.1188473284691575</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>44.415097</v>
       </c>
       <c r="O4">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="P4">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="Q4">
-        <v>176.4113170321013</v>
+        <v>84.17537832915211</v>
       </c>
       <c r="R4">
-        <v>1587.701853288912</v>
+        <v>757.5784049623691</v>
       </c>
       <c r="S4">
-        <v>0.0575744175418944</v>
+        <v>0.02950058309752755</v>
       </c>
       <c r="T4">
-        <v>0.05757441754189441</v>
+        <v>0.02950058309752755</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>89.40146100000001</v>
       </c>
       <c r="I5">
-        <v>0.5511514941691684</v>
+        <v>0.622926875404983</v>
       </c>
       <c r="J5">
-        <v>0.5511514941691684</v>
+        <v>0.6229268754049829</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.126464333333334</v>
+        <v>9.101794333333332</v>
       </c>
       <c r="N5">
-        <v>18.379393</v>
+        <v>27.305383</v>
       </c>
       <c r="O5">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="P5">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="Q5">
-        <v>182.5716207214637</v>
+        <v>271.2379037071737</v>
       </c>
       <c r="R5">
-        <v>1643.144586493173</v>
+        <v>2441.141133364563</v>
       </c>
       <c r="S5">
-        <v>0.05958492289247622</v>
+        <v>0.09505958246155533</v>
       </c>
       <c r="T5">
-        <v>0.05958492289247622</v>
+        <v>0.09505958246155531</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>89.40146100000001</v>
       </c>
       <c r="I6">
-        <v>0.5511514941691684</v>
+        <v>0.622926875404983</v>
       </c>
       <c r="J6">
-        <v>0.5511514941691684</v>
+        <v>0.6229268754049829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>107.212106</v>
       </c>
       <c r="O6">
-        <v>0.6306349784216607</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="P6">
-        <v>0.6306349784216608</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="Q6">
         <v>1064.990990365208</v>
@@ -818,10 +818,10 @@
         <v>9584.918913286867</v>
       </c>
       <c r="S6">
-        <v>0.3475754106324396</v>
+        <v>0.3732428155717138</v>
       </c>
       <c r="T6">
-        <v>0.3475754106324396</v>
+        <v>0.3732428155717138</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>89.40146100000001</v>
       </c>
       <c r="I7">
-        <v>0.5511514941691684</v>
+        <v>0.622926875404983</v>
       </c>
       <c r="J7">
-        <v>0.5511514941691684</v>
+        <v>0.6229268754049829</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>44.415097</v>
       </c>
       <c r="O7">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="P7">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="Q7">
         <v>441.1971735840798</v>
@@ -880,10 +880,10 @@
         <v>3970.774562256718</v>
       </c>
       <c r="S7">
-        <v>0.1439911606442526</v>
+        <v>0.1546244773717138</v>
       </c>
       <c r="T7">
-        <v>0.1439911606442526</v>
+        <v>0.1546244773717138</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>37.06015</v>
       </c>
       <c r="I8">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258595</v>
       </c>
       <c r="J8">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258594</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.126464333333334</v>
+        <v>9.101794333333332</v>
       </c>
       <c r="N8">
-        <v>18.379393</v>
+        <v>27.305383</v>
       </c>
       <c r="O8">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="P8">
-        <v>0.1081098818071741</v>
+        <v>0.1526015110517656</v>
       </c>
       <c r="Q8">
-        <v>75.68256238766112</v>
+        <v>112.4379544208278</v>
       </c>
       <c r="R8">
-        <v>681.14306148895</v>
+        <v>1011.94158978745</v>
       </c>
       <c r="S8">
-        <v>0.02470011290009681</v>
+        <v>0.03940564668135132</v>
       </c>
       <c r="T8">
-        <v>0.02470011290009681</v>
+        <v>0.0394056466813513</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>37.06015</v>
       </c>
       <c r="I9">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258595</v>
       </c>
       <c r="J9">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258594</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>107.212106</v>
       </c>
       <c r="O9">
-        <v>0.6306349784216607</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="P9">
-        <v>0.6306349784216608</v>
+        <v>0.5991759712230392</v>
       </c>
       <c r="Q9">
         <v>441.4774144639889</v>
@@ -1004,10 +1004,10 @@
         <v>3973.2967301759</v>
       </c>
       <c r="S9">
-        <v>0.1440826213606264</v>
+        <v>0.1547226921885544</v>
       </c>
       <c r="T9">
-        <v>0.1440826213606264</v>
+        <v>0.1547226921885544</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>37.06015</v>
       </c>
       <c r="I10">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258595</v>
       </c>
       <c r="J10">
-        <v>0.2284722958457413</v>
+        <v>0.2582257961258594</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>44.415097</v>
       </c>
       <c r="O10">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="P10">
-        <v>0.2612551397711651</v>
+        <v>0.2482225177251951</v>
       </c>
       <c r="Q10">
         <v>182.8922396760611</v>
@@ -1066,10 +1066,10 @@
         <v>1646.03015708455</v>
       </c>
       <c r="S10">
-        <v>0.05968956158501813</v>
+        <v>0.06409745725595378</v>
       </c>
       <c r="T10">
-        <v>0.05968956158501813</v>
+        <v>0.06409745725595377</v>
       </c>
     </row>
   </sheetData>
